--- a/Componentes/Componentes.xlsx
+++ b/Componentes/Componentes.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>0.86</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -491,14 +491,14 @@
       </c>
       <c r="E8" s="3">
         <f>E$2*E$3*D8</f>
-        <v>14.7232</v>
+        <v>31.843200000000003</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="4">
         <f>F8*E8</f>
-        <v>14.7232</v>
+        <v>31.843200000000003</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -510,14 +510,14 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" ref="E9:E16" si="0">E$2*E$3*D9</f>
-        <v>1.1936799999999999</v>
+        <v>2.58168</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" ref="G9:G19" si="1">F9*E9</f>
-        <v>1.1936799999999999</v>
+        <v>2.58168</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -529,14 +529,14 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>2.2944800000000001</v>
+        <v>4.9624800000000002</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ref="G10" si="2">F10*E10</f>
-        <v>18.355840000000001</v>
+        <v>39.699840000000002</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -548,14 +548,14 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>1.67184</v>
+        <v>3.6158399999999999</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>13.37472</v>
+        <v>28.92672</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -566,15 +566,15 @@
         <v>1.57</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>5.4008000000000003</v>
+        <f>E$2*E$3*D12</f>
+        <v>11.680800000000001</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>10.801600000000001</v>
+        <v>23.361600000000003</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -586,14 +586,14 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>0.24080000000000001</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="F13">
         <v>20</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="1"/>
-        <v>4.8160000000000007</v>
+        <v>10.416</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -605,14 +605,14 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>9.6320000000000003E-2</v>
+        <v>0.20832000000000001</v>
       </c>
       <c r="F14">
         <v>15</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>1.4448000000000001</v>
+        <v>3.1248</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -627,14 +627,14 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>0.67768000000000006</v>
+        <v>1.4656800000000001</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
-        <v>0.67768000000000006</v>
+        <v>1.4656800000000001</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -649,14 +649,14 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>22.084799999999998</v>
+        <v>47.764800000000001</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
-        <v>22.084799999999998</v>
+        <v>47.764800000000001</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -689,14 +689,14 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" ref="E19" si="3">E$2*E$3*D19</f>
-        <v>120.39999999999999</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="F19">
         <v>0.1</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>12.04</v>
+        <v>26.040000000000006</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
       </c>
       <c r="G20" s="4">
         <f>SUM(G7:G19)</f>
-        <v>219.51231999999999</v>
+        <v>335.22431999999998</v>
       </c>
     </row>
   </sheetData>
